--- a/Elegant Python.xlsx
+++ b/Elegant Python.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Strings" sheetId="1" r:id="rId1"/>
+    <sheet name="List, Dict" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>+</t>
   </si>
@@ -28,18 +29,93 @@
   </si>
   <si>
     <t>a + b  -&gt;   HelloPython</t>
+  </si>
+  <si>
+    <t>Создать словарь из существующиего по условию к значениям или ключам</t>
+  </si>
+  <si>
+    <t>{k: v for k, v in &lt;начальный dict&gt;.iteritems() if v[0] &lt; 5 and v[1] &lt; 5}</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>[::-1]</t>
+  </si>
+  <si>
+    <t>Сделать лист/строку/кортеж обратной последовательности, то же, что .reverse()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Повторение. Новая строка получается повторением исходной
+заданное количество раз.
+</t>
+  </si>
+  <si>
+    <t>a*2 даст HelloHello</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Сырая» строка. Подавляет Escape-символы. Обозначается добавлением r или R перед открывающейся кавычкой. </t>
+  </si>
+  <si>
+    <t>r/R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> print r'\n' выводит \n and print R'\n' выводит \n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -51,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +135,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -345,30 +460,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="41" style="8" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Elegant Python.xlsx
+++ b/Elegant Python.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>+</t>
   </si>
@@ -70,6 +70,37 @@
   </si>
   <si>
     <t xml:space="preserve"> print r'\n' выводит \n and print R'\n' выводит \n</t>
+  </si>
+  <si>
+    <t>Разделить дату формата "2010-12-31" на три переменные year, month, day</t>
+  </si>
+  <si>
+    <t>string = "2010-12-31"
+year, month, day = map(int, string.split('-') )</t>
+  </si>
+  <si>
+    <t>[str(x) + " " + str(second) for x in self.values]</t>
+  </si>
+  <si>
+    <t>прибавить к каждому элементу в Листе строку</t>
+  </si>
+  <si>
+    <t>list (map (func, given_list))</t>
+  </si>
+  <si>
+    <t>применяет функцию func к каждому элементу given_list и выдает лист результатов</t>
+  </si>
+  <si>
+    <t>d = [[] for x in xrange(n)]</t>
+  </si>
+  <si>
+    <t>Создать пустой Лист Листов</t>
+  </si>
+  <si>
+    <t>Создать лист листов с данными первыми элементами</t>
+  </si>
+  <si>
+    <t>d = [[x] for x in List_of_variants]</t>
   </si>
 </sst>
 </file>
@@ -463,7 +494,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +560,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,25 +594,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>

--- a/Elegant Python.xlsx
+++ b/Elegant Python.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Strings" sheetId="1" r:id="rId1"/>
     <sheet name="List, Dict" sheetId="2" r:id="rId2"/>
+    <sheet name="pipes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>+</t>
   </si>
@@ -41,9 +42,6 @@
   </si>
   <si>
     <t>Назначение</t>
-  </si>
-  <si>
-    <t>Пример</t>
   </si>
   <si>
     <t>[::-1]</t>
@@ -101,18 +99,168 @@
   </si>
   <si>
     <t>d = [[x] for x in List_of_variants]</t>
+  </si>
+  <si>
+    <t>Объединение 2 словарей. Если ключи совпадают, значение в него вписывается из последнего словаря</t>
+  </si>
+  <si>
+    <t>d = {**dict1, **dict2}</t>
+  </si>
+  <si>
+    <t>Объединение 2 словарей, начиная с Питона 3.9</t>
+  </si>
+  <si>
+    <t>d = dict1 | dict2,       dict3 |=dict2</t>
+  </si>
+  <si>
+    <t>"dfgdfggdf"'.removeprefix(' " ').removesuffix(' " ')</t>
+  </si>
+  <si>
+    <t>Удаление первого и конечного вхождения элемента</t>
+  </si>
+  <si>
+    <t>Код, пример</t>
+  </si>
+  <si>
+    <t>from pipe import *</t>
+  </si>
+  <si>
+    <t>[1,2,3,4] | where(lambda x: x&lt;=2) | as_list</t>
+  </si>
+  <si>
+    <t>Format строки в питоне 3.7, нужные значения вставляем прямо в фигурные скобки</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">f"Ответ будет равен:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {d + 20}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Ответ будет равен: {}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.format(d+20)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Ответы равны: a = {}, b = {}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.format(a,b)
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ответы равны: второй ответ b = {2}, первый ответ a = {1}, третий ответ c = {3}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.format(a,b,c)</t>
+    </r>
+  </si>
+  <si>
+    <t>Format строки в питоне до 3.7, нужные значения вставляем в аргументы фунции format. Если надо, можно сделать нумерованные места в строке.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,6 +292,14 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -185,30 +341,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -491,76 +656,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="41" style="8" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="45.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="41" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +826,10 @@
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -596,51 +842,59 @@
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -753,13 +1007,95 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Elegant Python.xlsx
+++ b/Elegant Python.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Strings" sheetId="1" r:id="rId1"/>
     <sheet name="List, Dict" sheetId="2" r:id="rId2"/>
     <sheet name="pipes" sheetId="3" r:id="rId3"/>
+    <sheet name="Other" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>+</t>
   </si>
@@ -233,18 +234,321 @@
   </si>
   <si>
     <t>Format строки в питоне до 3.7, нужные значения вставляем в аргументы фунции format. Если надо, можно сделать нумерованные места в строке.</t>
+  </si>
+  <si>
+    <t>однострочный  if</t>
+  </si>
+  <si>
+    <r>
+      <t>value_when_true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value_when_false
+fruit = 'Apple'
+isApple = True if fruit == 'Apple' else False</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>insideitem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>insideitem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> %2 == 0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создать 1 лист   по условию из элементов, запрятанных внутри </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>листа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>листов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>листов…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   ПОРЯДОК for - обратный!</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,6 +609,46 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,40 +685,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,23 +1238,27 @@
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1007,6 +1367,10 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1019,7 +1383,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,4 +1462,92 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="61.28515625" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Elegant Python.xlsx
+++ b/Elegant Python.xlsx
@@ -33,9 +33,6 @@
     <t>a + b  -&gt;   HelloPython</t>
   </si>
   <si>
-    <t>Создать словарь из существующиего по условию к значениям или ключам</t>
-  </si>
-  <si>
     <t>{k: v for k, v in &lt;начальный dict&gt;.iteritems() if v[0] &lt; 5 and v[1] &lt; 5}</t>
   </si>
   <si>
@@ -529,18 +526,29 @@
       </rPr>
       <t xml:space="preserve">   ПОРЯДОК for - обратный!</t>
     </r>
+  </si>
+  <si>
+    <t>Создать словарь из существующего по условию к значениям или ключам</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,40 +698,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1029,13 +1037,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,32 +1059,32 @@
     </row>
     <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1086,18 +1094,18 @@
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,7 +1170,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,90 +1182,90 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,21 +1401,21 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5"/>
     </row>
@@ -1480,18 +1488,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/Elegant Python.xlsx
+++ b/Elegant Python.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Strings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>+</t>
   </si>
@@ -87,9 +87,6 @@
     <t>применяет функцию func к каждому элементу given_list и выдает лист результатов</t>
   </si>
   <si>
-    <t>d = [[] for x in xrange(n)]</t>
-  </si>
-  <si>
     <t>Создать пустой Лист Листов</t>
   </si>
   <si>
@@ -529,6 +526,62 @@
   </si>
   <si>
     <t>Создать словарь из существующего по условию к значениям или ключам</t>
+  </si>
+  <si>
+    <t>d = [[] for x in range(n)]</t>
+  </si>
+  <si>
+    <t>x = lambda a, b: a * b</t>
+  </si>
+  <si>
+    <t>Лямбда-функция умножения</t>
+  </si>
+  <si>
+    <t>films = ['Titanic', 'Avatar', 'Формула Любви', 'Гардемарины', 'American Beauty', 'War and Peace', 'Stranger']
+users = {1: ['Titanic', 'Avatar'], 2: ['Формула', 'Avatar'], 3: ['Titanic', 'American Beauty'],
+         4: ['Формула Любви', 'Гардемарины'], 5: ['Avatar', 'American Beauty'], 6: ['War and Peace', 'American Beauty'], 7: ['Гардемарины', 'Формула Любви']}
+matrix = ([1 if f in users[u] else 0 for u in users] for f in films)</t>
+  </si>
+  <si>
+    <t>Сделать ГЕНЕРАТОР матрицы из 0 и 1: 1 -если юзер посмотрел фильм, 0 - если нет.</t>
+  </si>
+  <si>
+    <t>class Gen:
+    def __init__(self):
+        self.gen = ([1 if f in users[u] else 0 for u in users] for f in films)</t>
+  </si>
+  <si>
+    <t>compressed = [(i, j) for (i, row) in enumerate(list(Gen().gen)) for (j, x) in enumerate(row) if x == 1]</t>
+  </si>
+  <si>
+    <t>Создание листа туплов как координат значений, равных 1, в матрице из нулей и единиц.  Аналог sparse, но без столбца со значениями (так как они все равны 1).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Класс, создающий </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>многоразовый</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> генератор матрицы из нулей и единиц по условиям вышеописанным</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -693,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -701,9 +754,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -738,6 +788,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1028,43 +1090,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="45.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="41" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="45.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41" style="7" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1072,92 +1134,92 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1169,216 +1231,228 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+    </row>
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1391,7 +1465,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
+      <selection activeCell="B5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,72 +1474,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1476,83 +1546,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="61.28515625" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="2" width="61.28515625" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="B2" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Elegant Python.xlsx
+++ b/Elegant Python.xlsx
@@ -11,6 +11,7 @@
     <sheet name="List, Dict" sheetId="2" r:id="rId2"/>
     <sheet name="pipes" sheetId="3" r:id="rId3"/>
     <sheet name="Other" sheetId="4" r:id="rId4"/>
+    <sheet name="lambda" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>+</t>
   </si>
@@ -529,9 +530,6 @@
   </si>
   <si>
     <t>d = [[] for x in range(n)]</t>
-  </si>
-  <si>
-    <t>x = lambda a, b: a * b</t>
   </si>
   <si>
     <t>Лямбда-функция умножения</t>
@@ -581,6 +579,377 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> генератор матрицы из нулей и единиц по условиям вышеописанным</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a, b: a * b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>new_indexes = [  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(n): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"AREA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> area_indexes  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"REGION"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)   (i)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(data.indexes)) ]</t>
+    </r>
+  </si>
+  <si>
+    <t>Лямбда-функция от n, принимающая в качестве n переменную I (стоит в скобках после скобок описания лямбды) из цикла.    Функция выбирает AREA, если n среди area_indexes и REGION в противном случае.</t>
+  </si>
+  <si>
+    <t>sudo pip install virtualenvwrapper</t>
+  </si>
+  <si>
+    <t>установить враппер</t>
+  </si>
+  <si>
+    <t>создать енвайромент  с именем myenv  через virtualenvwrapper</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mkvirtualenv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> myenv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> myenv</t>
+    </r>
+  </si>
+  <si>
+    <t>посмотреть имеющиеся энвайроменты
+-b Brief mode, disables verbose output.
+-l Long mode, enables verbose output. Default.
+-h Print the help for lsvirtualenv.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lsvirtualenv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [-b] [-l] [-h]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>showvirtualenv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> myenv</t>
+    </r>
+  </si>
+  <si>
+    <t>показать подробности кокретной виртуалки</t>
+  </si>
+  <si>
+    <t>удалить виртуалку</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rmvirtualenv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> myenv</t>
     </r>
   </si>
 </sst>
@@ -588,7 +957,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,6 +1079,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -746,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -800,6 +1177,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1332,26 +1712,26 @@
     </row>
     <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,12 +1957,118 @@
       <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="61.28515625" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
@@ -1619,14 +2105,6 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Elegant Python.xlsx
+++ b/Elegant Python.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Flask" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="924">
   <si>
     <r>
       <rPr>
@@ -839,6 +839,18 @@
   <si>
     <t xml:space="preserve">набор стандартных типов данных, передаваемых через интернет:
 картинка, приложение, сообщение, e-mail, audio…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Протокол обмена xml-сообщениями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Протокол обмена HTTP-запросами типа GET/POST/HEAD/UPDATE/DELETE и т. д.</t>
   </si>
   <si>
     <t xml:space="preserve">sqlite  https://docs.python.org/3/library/sqlite3.html</t>
@@ -7032,9 +7044,6 @@
     <t xml:space="preserve">Распаковка</t>
   </si>
   <si>
-    <t xml:space="preserve">lambda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Магические функции</t>
   </si>
   <si>
@@ -7183,6 +7192,9 @@
   <si>
     <t xml:space="preserve">Магическая функция, отвечающая за представление объекта в строковом виде.
 То есть «Что будет выведено, если мы хотим превратить объект в строку»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda</t>
   </si>
   <si>
     <t xml:space="preserve">Лямбда-функция</t>
@@ -9590,56 +9602,9 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Разрезает строку одним из разделителей: точка с запятой, запятая </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">или пробел </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[; , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">], 
+    <t xml:space="preserve">Разрезает строку одним из разделителей: точка с запятой, запятая или пробел [; , \s], 
 после разделителя может быть любое число пробелов (\s)
 Получает такоей же лист, как простой string.split()</t>
-    </r>
   </si>
   <si>
     <r>
@@ -9729,18 +9694,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"># (c) Rebuilding a string using fields above</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-values = fields[::2]
+      <t xml:space="preserve"># (c) Rebuilding a string using fields above
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">values = fields[::2]
 delimiters = fields[1::2]
 delimiters.append('')
 </t>
@@ -9786,27 +9751,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">('delimiters =', delimiters)
-&gt;&gt;&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">delimiters = [' ', ';', ',', ',', ',', '']
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+&gt;&gt;&gt; delimiters = [' ', ';', ',', ',', ',', '']
 newline = ''.join(v+d for v, d in zip(values, delimiters))
 </t>
     </r>
@@ -9829,16 +9774,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">('newline =', newline)
-&gt;&gt;&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">newline = asdf fjdk;afed,fjek,asdf,foo</t>
+&gt;&gt;&gt; newline = asdf fjdk;afed,fjek,asdf,foo</t>
     </r>
   </si>
   <si>
@@ -11728,6 +11664,7 @@
         <color rgb="FF6A1B9A"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">print</t>
     </r>
@@ -11737,6 +11674,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(c[„y“]  </t>
     </r>
@@ -11746,6 +11684,7 @@
         <color rgb="FF757575"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"># выводит 2 (из b, так как в a не нашёл)
 </t>
@@ -11756,6 +11695,7 @@
         <color rgb="FF6A1B9A"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">print</t>
     </r>
@@ -11765,6 +11705,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(c[„z“]  </t>
     </r>
@@ -11774,6 +11715,7 @@
         <color rgb="FF757575"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"># выводит 2 (из a)</t>
     </r>
@@ -11810,6 +11752,7 @@
         <color rgb="FF6A1B9A"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">list</t>
     </r>
@@ -11819,6 +11762,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">( c.keys() )
 &gt;&gt;&gt; [„x“, „y“, „z“]
@@ -11830,6 +11774,7 @@
         <color rgb="FF6A1B9A"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">list</t>
     </r>
@@ -11839,6 +11784,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(c.values())
 &gt;&gt;&gt; [ 1, 2, 3 ]</t>
@@ -12028,15 +11974,7 @@
     <t xml:space="preserve">Все операции действуют на первое отображение (первый элемент)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"># Example of stacking mappings (like scopes)
+    <t xml:space="preserve"># Example of stacking mappings (like scopes)
 values = ChainMap()
 values['x'] = 1
 # Add a new mapping
@@ -12046,7 +11984,6 @@
 values = values.new_child()
 values['x'] = 3
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">ChainMap может сам создавать себе дочерние элементы.
@@ -12060,6 +11997,7 @@
         <color rgb="FF6A1B9A"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">print</t>
     </r>
@@ -12069,6 +12007,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(values)
 &gt;&gt;&gt; ChainMap({'x': 3}, {'x': 2}, {'x': 1})
@@ -12080,6 +12019,7 @@
         <color rgb="FF6A1B9A"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">print</t>
     </r>
@@ -12089,6 +12029,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(values['x'])
 &gt;&gt;&gt; 3
@@ -12100,6 +12041,7 @@
         <color rgb="FF01579B"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">parents
 </t>
@@ -12110,6 +12052,7 @@
         <color rgb="FF6A1B9A"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">print</t>
     </r>
@@ -12119,6 +12062,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(values)
 &gt;&gt;&gt; ChainMap( {'x': 2}, {'x': 1})
@@ -12130,6 +12074,7 @@
         <color rgb="FF6A1B9A"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">print</t>
     </r>
@@ -12139,6 +12084,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(values['x'])
 &gt;&gt;&gt; 2
@@ -12150,6 +12096,7 @@
         <color rgb="FF01579B"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">parents
 </t>
@@ -12160,6 +12107,7 @@
         <color rgb="FF6A1B9A"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">print</t>
     </r>
@@ -12169,6 +12117,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(values)
 &gt;&gt;&gt; ChainMap({'x': 1})
@@ -12180,6 +12129,7 @@
         <color rgb="FF6A1B9A"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">print</t>
     </r>
@@ -12189,6 +12139,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(values['x'])
 &gt;&gt;&gt; 1</t>
@@ -19512,10 +19463,14 @@
     <t xml:space="preserve">[1,2,3,4] | where(lambda x: x&lt;=2) | as_list</t>
   </si>
   <si>
+    <t xml:space="preserve">virtualenvwrapper</t>
+  </si>
+  <si>
     <t xml:space="preserve">sudo pip install virtualenvwrapper</t>
   </si>
   <si>
-    <t xml:space="preserve">установить враппер</t>
+    <t xml:space="preserve">установить враппер
+https://virtualenvwrapper.readthedocs.io/en/latest/command_ref.html</t>
   </si>
   <si>
     <r>
@@ -19583,7 +19538,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> [-b] [-l] [-h]</t>
+      <t xml:space="preserve"> [-b] [-l] [-h]
+lsvirtualenv -b</t>
     </r>
   </si>
   <si>
@@ -19624,10 +19580,22 @@
     <t xml:space="preserve">показать подробности кокретной виртуалки</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
+    <t xml:space="preserve">cdvirtualenv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перейти в папку выбранной виртуалки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deactivate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отключает текущую виртуалку</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -19647,6 +19615,9 @@
   </si>
   <si>
     <t xml:space="preserve">удалить виртуалку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pip</t>
   </si>
   <si>
     <r>
@@ -20672,7 +20643,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="109">
+  <fonts count="107">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -21241,12 +21212,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF512DA8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -21305,18 +21270,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF6A1B9A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF757575"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -21343,12 +21296,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF01579B"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -21384,6 +21331,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -21437,7 +21398,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21447,7 +21408,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFE0E0E0"/>
       </patternFill>
     </fill>
     <fill>
@@ -21483,7 +21444,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFE0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0E0E0"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -21610,12 +21577,8 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -21652,10 +21615,6 @@
     </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -21842,10 +21801,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="81" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -21854,7 +21809,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="82" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="81" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21874,15 +21829,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="92" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="90" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="89" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21902,11 +21849,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21922,19 +21869,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="98" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21942,7 +21905,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="102" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="100" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21950,8 +21913,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="103" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="101" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -21962,23 +21929,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="108" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="106" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="108" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="106" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21996,14 +21963,14 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF616161"/>
+      <rgbColor rgb="FFB75300"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF94558D"/>
-      <rgbColor rgb="FFC45911"/>
+      <rgbColor rgb="FFC55A11"/>
       <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF0E9D28"/>
-      <rgbColor rgb="FF2F5597"/>
+      <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FF548235"/>
       <rgbColor rgb="FF6A1B9A"/>
       <rgbColor rgb="FF01579B"/>
@@ -22012,22 +21979,22 @@
       <rgbColor rgb="FF6A8759"/>
       <rgbColor rgb="FF9C27B0"/>
       <rgbColor rgb="FFEEEEEE"/>
-      <rgbColor rgb="FFB2FF59"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FFCC7832"/>
       <rgbColor rgb="FF016EC0"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF7030A0"/>
+      <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFE65100"/>
       <rgbColor rgb="FFFFD966"/>
-      <rgbColor rgb="FFB75300"/>
+      <rgbColor rgb="FFC45911"/>
       <rgbColor rgb="FFB200B2"/>
       <rgbColor rgb="FFBF360C"/>
-      <rgbColor rgb="FF2A6099"/>
-      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF2C5B98"/>
+      <rgbColor rgb="FF616161"/>
       <rgbColor rgb="FF00ACED"/>
-      <rgbColor rgb="FFC55A11"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFB2FF59"/>
+      <rgbColor rgb="FFE0E0E0"/>
       <rgbColor rgb="FFFFF176"/>
       <rgbColor rgb="FFA9B7C6"/>
       <rgbColor rgb="FFBBB529"/>
@@ -22062,8 +22029,8 @@
   </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22228,8 +22195,8 @@
   </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22239,24 +22206,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22264,176 +22231,176 @@
       <c r="B4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>311</v>
+      <c r="A5" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
-        <v>312</v>
+      <c r="A6" s="52" t="s">
+        <v>316</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>315</v>
+      <c r="A7" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>317</v>
+      <c r="A9" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>319</v>
+      <c r="A10" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>321</v>
+      <c r="A11" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>323</v>
+        <v>326</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>325</v>
+        <v>328</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B15" s="54"/>
+      <c r="A15" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" s="35"/>
+        <v>331</v>
+      </c>
+      <c r="B18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>329</v>
+      <c r="A19" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>331</v>
+        <v>334</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>333</v>
+      <c r="A23" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>335</v>
+      <c r="A24" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>337</v>
+        <v>340</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="58" t="s">
-        <v>338</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>339</v>
+      <c r="A28" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -22453,8 +22420,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22465,77 +22432,77 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
-      <c r="B7" s="59" t="s">
-        <v>350</v>
+      <c r="B7" s="57" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -22556,347 +22523,347 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="51.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="60" width="66.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="51.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="66.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="22.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="23" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="22.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="12" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
-      <c r="B2" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3" s="33" customFormat="true" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" s="31" customFormat="true" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
-      <c r="B3" s="61" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>355</v>
+      <c r="B3" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>358</v>
+      <c r="A4" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>361</v>
+      <c r="A5" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>364</v>
+      <c r="A6" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" s="23" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>369</v>
       </c>
+      <c r="C7" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" s="12" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="23"/>
+      <c r="B9" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" s="23"/>
+      <c r="B10" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D11" s="23"/>
+      <c r="B11" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D12" s="23"/>
+      <c r="B12" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="D13" s="23"/>
+      <c r="B13" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D14" s="23"/>
+      <c r="B14" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="D15" s="23"/>
+      <c r="B15" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="D16" s="23"/>
+      <c r="B16" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="D17" s="23"/>
+      <c r="B17" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="D18" s="23"/>
+      <c r="B18" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="D19" s="23"/>
+      <c r="B19" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="D20" s="23"/>
+      <c r="B20" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="D21" s="23"/>
+      <c r="B21" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D22" s="23"/>
+      <c r="B22" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="D23" s="23"/>
+      <c r="B23" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="D24" s="23"/>
+      <c r="B24" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="D25" s="23"/>
+      <c r="B25" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="62" t="s">
-        <v>404</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>405</v>
+      <c r="B26" s="60" t="s">
+        <v>408</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="62" t="s">
-        <v>406</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>407</v>
+      <c r="B27" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="48" t="s">
-        <v>408</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>409</v>
+      <c r="B28" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>411</v>
+        <v>414</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="C30" s="14"/>
+      <c r="B30" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>414</v>
+      <c r="B31" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="64" t="s">
-        <v>415</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>416</v>
+      <c r="B32" s="62" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="14"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="14"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="14"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="14"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="14"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="14"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="14"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="14"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="14"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="14"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="14"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="14"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="14"/>
+      <c r="C45" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -22917,8 +22884,8 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22929,40 +22896,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22971,42 +22938,42 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23014,262 +22981,262 @@
       <c r="B12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="51" t="s">
-        <v>434</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>435</v>
+      <c r="A13" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>437</v>
+      <c r="A14" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>439</v>
+      <c r="A16" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="65" t="s">
-        <v>440</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>441</v>
+      <c r="A17" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>442</v>
+      <c r="A18" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="65" t="s">
-        <v>359</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>443</v>
+      <c r="A19" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>445</v>
+      <c r="A20" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>447</v>
+      <c r="A21" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="66" t="s">
-        <v>448</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>449</v>
+      <c r="A22" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>451</v>
+      <c r="A23" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>453</v>
+      <c r="A24" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>455</v>
+      <c r="A25" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="62" t="s">
-        <v>456</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>457</v>
+      <c r="A26" s="60" t="s">
+        <v>460</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>459</v>
+      <c r="A27" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="43" t="s">
-        <v>460</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>461</v>
+      <c r="A28" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>463</v>
+      <c r="A29" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>465</v>
+      <c r="A30" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>467</v>
+      <c r="A31" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>469</v>
+      <c r="A32" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>471</v>
+      <c r="A33" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>473</v>
+      <c r="A34" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>475</v>
+      <c r="A35" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>477</v>
+      <c r="A36" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>479</v>
+      <c r="A37" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67" t="s">
-        <v>480</v>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="95.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="68" t="s">
-        <v>481</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>482</v>
+      <c r="A40" s="66" t="s">
+        <v>485</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>484</v>
+      <c r="A41" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="69" t="s">
-        <v>485</v>
-      </c>
-      <c r="B42" s="70" t="s">
-        <v>486</v>
+      <c r="A42" s="67" t="s">
+        <v>489</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="69" t="s">
-        <v>487</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>488</v>
+      <c r="A43" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -23290,415 +23257,415 @@
   </sheetPr>
   <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="77.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="90.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="23" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="77.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="90.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="12" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" s="33" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" s="31" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
-      <c r="B2" s="35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" s="72" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" s="69" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" s="72" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" s="69" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" s="72" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" s="69" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="6" s="72" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" s="69" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" s="72" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="73" t="s">
-        <v>498</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" s="69" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="70" t="s">
+        <v>502</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="8" s="72" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="73" t="s">
-        <v>500</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" s="69" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="70" t="s">
+        <v>504</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" s="72" customFormat="true" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" s="69" customFormat="true" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" s="72" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" s="69" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" s="72" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" s="69" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="12" s="72" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" s="69" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="13" s="72" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" s="69" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="14" s="72" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" s="69" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="15" s="72" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" s="69" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" s="72" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" s="69" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="17" s="72" customFormat="true" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" s="69" customFormat="true" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="18" s="72" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>520</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" s="69" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>524</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="19" s="72" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>522</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" s="69" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>526</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="20" s="72" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" s="69" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="21" s="72" customFormat="true" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" s="69" customFormat="true" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="22" s="72" customFormat="true" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="22" s="69" customFormat="true" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="23" s="72" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="23" s="69" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="24" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" s="72" customFormat="true" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="69" customFormat="true" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="26" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
     </row>
-    <row r="28" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
     </row>
-    <row r="29" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" s="72" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="69" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
     </row>
-    <row r="32" s="72" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="69" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
-      <c r="B32" s="35" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="33" s="72" customFormat="true" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="74" t="s">
-        <v>535</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="34" s="72" customFormat="true" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="33" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="33" s="69" customFormat="true" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="71" t="s">
+        <v>539</v>
+      </c>
+      <c r="B33" s="71" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="34" s="69" customFormat="true" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="B34" s="75" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="35" s="72" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>541</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="35" s="69" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="B35" s="75" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="36" s="72" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="75" t="s">
-        <v>541</v>
-      </c>
-      <c r="B36" s="75" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="37" s="72" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="75" t="s">
         <v>543</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B35" s="72" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="38" s="72" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="75" t="s">
+    <row r="36" s="69" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B36" s="72" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="37" s="69" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="72" t="s">
+        <v>547</v>
+      </c>
+      <c r="B37" s="72" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="38" s="69" customFormat="true" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="72" t="s">
+        <v>549</v>
+      </c>
+      <c r="B38" s="72" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="B39" s="76" t="s">
-        <v>548</v>
+        <v>551</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>552</v>
+      <c r="A41" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>554</v>
+      <c r="A42" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>556</v>
+      <c r="A43" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>558</v>
+      <c r="A44" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>560</v>
+      <c r="A45" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>562</v>
+      <c r="A46" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
-        <v>563</v>
+      <c r="A47" s="13" t="s">
+        <v>567</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
-        <v>565</v>
+      <c r="A48" s="13" t="s">
+        <v>569</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>568</v>
+      <c r="A50" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>570</v>
+      <c r="A52" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>572</v>
+      <c r="A53" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>574</v>
+      <c r="A54" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>576</v>
+      <c r="A55" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23706,558 +23673,558 @@
       <c r="B56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="58" t="s">
-        <v>338</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>577</v>
+      <c r="A57" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>579</v>
+      <c r="A58" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="67" t="s">
-        <v>580</v>
-      </c>
-      <c r="B60" s="67" t="s">
-        <v>581</v>
+      <c r="A60" s="65" t="s">
+        <v>584</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="B61" s="14"/>
+      <c r="A61" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="77" t="s">
-        <v>583</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>584</v>
+      <c r="A62" s="74" t="s">
+        <v>587</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="77" t="s">
-        <v>585</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>586</v>
+      <c r="A63" s="74" t="s">
+        <v>589</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="63.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="78" t="s">
-        <v>587</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>588</v>
+      <c r="A64" s="75" t="s">
+        <v>591</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="79" t="s">
-        <v>589</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>590</v>
+      <c r="A65" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="189.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="80" t="s">
-        <v>591</v>
-      </c>
-      <c r="B66" s="70" t="s">
-        <v>592</v>
+      <c r="A66" s="74" t="s">
+        <v>595</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="B68" s="67" t="s">
-        <v>594</v>
+      <c r="A68" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>596</v>
+      <c r="A69" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>598</v>
+      <c r="A70" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="67" t="s">
-        <v>599</v>
-      </c>
-      <c r="B73" s="67" t="s">
-        <v>600</v>
+      <c r="A73" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="B73" s="65" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="68" t="s">
-        <v>601</v>
-      </c>
-      <c r="B74" s="14"/>
+      <c r="A74" s="66" t="s">
+        <v>605</v>
+      </c>
+      <c r="B74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>603</v>
+      <c r="A75" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>605</v>
+      <c r="A76" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>607</v>
+      <c r="A77" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="81" t="s">
-        <v>608</v>
-      </c>
-      <c r="B78" s="81" t="s">
-        <v>609</v>
+      <c r="A78" s="76" t="s">
+        <v>612</v>
+      </c>
+      <c r="B78" s="76" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
     </row>
     <row r="81" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="67" t="s">
-        <v>610</v>
-      </c>
-      <c r="B81" s="67" t="s">
-        <v>611</v>
+      <c r="A81" s="65" t="s">
+        <v>614</v>
+      </c>
+      <c r="B81" s="65" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>613</v>
+      <c r="A82" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>615</v>
+      <c r="A83" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="67" t="s">
-        <v>616</v>
-      </c>
-      <c r="B85" s="67" t="s">
-        <v>617</v>
+      <c r="A85" s="65" t="s">
+        <v>620</v>
+      </c>
+      <c r="B85" s="65" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="68" t="s">
-        <v>618</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>619</v>
+      <c r="A86" s="66" t="s">
+        <v>622</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>621</v>
+      <c r="A87" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>623</v>
+      <c r="A88" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="67" t="s">
-        <v>624</v>
-      </c>
-      <c r="B91" s="67" t="s">
-        <v>625</v>
+      <c r="A91" s="65" t="s">
+        <v>628</v>
+      </c>
+      <c r="B91" s="65" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="B92" s="14"/>
+      <c r="A92" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="B92" s="13"/>
     </row>
     <row r="93" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>628</v>
+      <c r="A93" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="B94" s="14"/>
+      <c r="A94" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="B94" s="13"/>
     </row>
     <row r="95" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="B95" s="14"/>
+      <c r="A95" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="B95" s="13"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="67" t="s">
-        <v>631</v>
-      </c>
-      <c r="B98" s="67" t="s">
-        <v>632</v>
+      <c r="A98" s="65" t="s">
+        <v>635</v>
+      </c>
+      <c r="B98" s="65" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="B99" s="14"/>
+      <c r="A99" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B99" s="13"/>
     </row>
     <row r="100" customFormat="false" ht="95.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="68" t="s">
-        <v>634</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>635</v>
+      <c r="A100" s="66" t="s">
+        <v>638</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="B101" s="14"/>
+      <c r="A101" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="B101" s="13"/>
     </row>
     <row r="102" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>638</v>
+      <c r="A102" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="67" t="s">
-        <v>639</v>
-      </c>
-      <c r="B107" s="67" t="s">
-        <v>640</v>
+      <c r="A107" s="65" t="s">
+        <v>643</v>
+      </c>
+      <c r="B107" s="65" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="68" t="s">
-        <v>641</v>
-      </c>
-      <c r="B108" s="14"/>
+      <c r="A108" s="66" t="s">
+        <v>645</v>
+      </c>
+      <c r="B108" s="13"/>
     </row>
     <row r="109" customFormat="false" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>643</v>
+      <c r="A109" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>645</v>
+      <c r="A110" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>647</v>
+      <c r="A111" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>649</v>
+      <c r="A112" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="67" t="s">
-        <v>650</v>
-      </c>
-      <c r="B114" s="67" t="s">
-        <v>651</v>
+      <c r="A114" s="65" t="s">
+        <v>654</v>
+      </c>
+      <c r="B114" s="65" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="68" t="s">
-        <v>652</v>
-      </c>
-      <c r="B115" s="14"/>
+      <c r="A115" s="66" t="s">
+        <v>656</v>
+      </c>
+      <c r="B115" s="13"/>
     </row>
     <row r="116" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B116" s="25" t="s">
-        <v>654</v>
+      <c r="A116" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="68" t="s">
-        <v>655</v>
-      </c>
-      <c r="B117" s="25" t="s">
-        <v>656</v>
+      <c r="A117" s="66" t="s">
+        <v>659</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="67" t="s">
-        <v>657</v>
-      </c>
-      <c r="B119" s="67" t="s">
-        <v>658</v>
+      <c r="A119" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="B119" s="65" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="242.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>660</v>
+      <c r="A120" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="67" t="s">
-        <v>661</v>
-      </c>
-      <c r="B121" s="67" t="s">
-        <v>662</v>
+      <c r="A121" s="65" t="s">
+        <v>665</v>
+      </c>
+      <c r="B121" s="65" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="68" t="s">
-        <v>663</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>664</v>
+      <c r="A122" s="66" t="s">
+        <v>667</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>666</v>
+      <c r="A123" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>668</v>
+      <c r="A124" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="13"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="13"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="14"/>
-      <c r="B129" s="14"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="14"/>
-      <c r="B130" s="14"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="13"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="14"/>
-      <c r="B131" s="14"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="13"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="14"/>
-      <c r="B132" s="14"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="13"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="14"/>
-      <c r="B133" s="14"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="13"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="14"/>
-      <c r="B134" s="14"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="13"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="14"/>
-      <c r="B136" s="14"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="13"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="13"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="13"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="14"/>
-      <c r="B139" s="14"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="13"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="13"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="13"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="14"/>
-      <c r="B142" s="14"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="13"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="13"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="13"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14"/>
-      <c r="B145" s="14"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="13"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
+      <c r="A146" s="13"/>
+      <c r="B146" s="13"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="13"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="14"/>
-      <c r="B148" s="14"/>
+      <c r="A148" s="13"/>
+      <c r="B148" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24281,8 +24248,8 @@
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24293,26 +24260,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="324.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>670</v>
+        <v>673</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83" t="s">
-        <v>671</v>
+      <c r="A3" s="78" t="s">
+        <v>675</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24473,8 +24440,8 @@
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24485,163 +24452,163 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>686</v>
+      <c r="A8" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>688</v>
+      <c r="A9" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>690</v>
+      <c r="A10" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -24661,50 +24628,50 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="57.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="57.703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24746,8 +24713,8 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24756,237 +24723,237 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="85" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="84" t="s">
-        <v>155</v>
+    <row r="1" s="80" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>700</v>
+      <c r="A2" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>702</v>
+      <c r="A3" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>704</v>
+      <c r="A4" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>706</v>
+      <c r="A5" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>708</v>
+      <c r="A6" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>710</v>
+      <c r="A7" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
-        <v>711</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>712</v>
+      <c r="A8" s="46" t="s">
+        <v>715</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
-        <v>713</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>714</v>
+      <c r="A9" s="46" t="s">
+        <v>717</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>716</v>
+        <v>719</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>718</v>
+      <c r="A11" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>720</v>
+      <c r="A12" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>722</v>
+      <c r="A13" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>724</v>
+      <c r="A14" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>726</v>
+      <c r="A15" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>728</v>
+      <c r="A16" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>730</v>
+      <c r="A17" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="86" t="s">
-        <v>731</v>
-      </c>
-      <c r="B18" s="14"/>
+      <c r="A18" s="81" t="s">
+        <v>735</v>
+      </c>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="86" t="s">
-        <v>732</v>
-      </c>
-      <c r="B19" s="14"/>
+      <c r="A19" s="81" t="s">
+        <v>736</v>
+      </c>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="86" t="s">
-        <v>733</v>
-      </c>
-      <c r="B20" s="14"/>
+      <c r="A20" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="B20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="86" t="s">
-        <v>734</v>
-      </c>
-      <c r="B21" s="14"/>
+      <c r="A21" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="86" t="s">
-        <v>735</v>
-      </c>
-      <c r="B22" s="14"/>
+      <c r="A22" s="81" t="s">
+        <v>739</v>
+      </c>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="86" t="s">
-        <v>736</v>
-      </c>
-      <c r="B23" s="14"/>
+      <c r="A23" s="81" t="s">
+        <v>740</v>
+      </c>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>738</v>
+      <c r="A25" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25010,11 +24977,11 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="51.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.14"/>
@@ -25022,147 +24989,147 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
-        <v>739</v>
+      <c r="A2" s="62" t="s">
+        <v>743</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54" t="s">
-        <v>741</v>
+      <c r="A4" s="52" t="s">
+        <v>745</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54" t="s">
-        <v>743</v>
+      <c r="A5" s="52" t="s">
+        <v>747</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>746</v>
+        <v>749</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>748</v>
+        <v>751</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>750</v>
+      <c r="A8" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>751</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>752</v>
+      <c r="A10" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>754</v>
+        <v>757</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>756</v>
+        <v>759</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>758</v>
+        <v>761</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>760</v>
+        <v>763</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>762</v>
+      <c r="A15" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>763</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>764</v>
+      <c r="A16" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>766</v>
+      <c r="A17" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>767</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>768</v>
+      <c r="A18" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -25183,8 +25150,8 @@
   </sheetPr>
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25516,8 +25483,8 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25527,10 +25494,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25538,100 +25505,100 @@
       <c r="B2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>770</v>
+      <c r="A3" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>771</v>
-      </c>
-      <c r="B7" s="35"/>
+      <c r="A7" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>772</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>773</v>
+      <c r="A11" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="B12" s="14"/>
+      <c r="A12" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="B12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -25651,8 +25618,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25661,68 +25628,68 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="87" t="s">
-        <v>155</v>
+      <c r="A1" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="88" t="s">
-        <v>775</v>
-      </c>
-      <c r="B2" s="89"/>
+      <c r="A2" s="83" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2" s="84"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
-        <v>776</v>
-      </c>
-      <c r="B3" s="51"/>
+      <c r="A3" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -25740,10 +25707,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25754,181 +25721,216 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>778</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="85" t="s">
+        <v>781</v>
+      </c>
+      <c r="B2" s="86"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>780</v>
+        <v>784</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>786</v>
+      </c>
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>782</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>783</v>
+        <v>787</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>789</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>791</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>788</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>790</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>792</v>
-      </c>
-      <c r="B11" s="14" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>794</v>
       </c>
-      <c r="B12" s="14" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>796</v>
       </c>
-      <c r="B13" s="14" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="87" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="B14" s="14" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="88" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="B14" s="86"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
         <v>800</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
+      <c r="A16" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="B17" s="35"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="B18" s="14" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="B19" s="14" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="B18" s="13" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="33" t="s">
+        <v>812</v>
+      </c>
+      <c r="B22" s="33"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A23" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://virtualenvwrapper.readthedocs.io/en/latest/command_ref.html"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -25946,482 +25948,482 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="25.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="38.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="40.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="14.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="21.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="25.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="38.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="40.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="16.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="14.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="12" width="21.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="90" t="s">
-        <v>807</v>
-      </c>
-      <c r="B1" s="90" t="s">
-        <v>808</v>
-      </c>
-      <c r="C1" s="90" t="s">
+      <c r="A1" s="89" t="s">
+        <v>817</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>818</v>
+      </c>
+      <c r="C1" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="90" t="s">
-        <v>809</v>
-      </c>
-      <c r="E1" s="91" t="s">
-        <v>810</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>811</v>
+      <c r="D1" s="89" t="s">
+        <v>819</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>816</v>
-      </c>
-      <c r="F2" s="93" t="n">
+        <v>825</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>826</v>
+      </c>
+      <c r="F2" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="94"/>
+      <c r="G2" s="93"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="74" t="s">
-        <v>817</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>818</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>819</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>820</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>821</v>
-      </c>
-      <c r="F3" s="93" t="n">
+      <c r="A3" s="71" t="s">
+        <v>827</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>828</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>829</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>830</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>831</v>
+      </c>
+      <c r="F3" s="92" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="94"/>
+      <c r="G3" s="93"/>
     </row>
     <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>825</v>
-      </c>
-      <c r="F4" s="93" t="n">
+        <v>834</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>835</v>
+      </c>
+      <c r="F4" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="94"/>
+      <c r="G4" s="93"/>
     </row>
     <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="74" t="s">
-        <v>826</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>827</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>828</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>829</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>830</v>
-      </c>
-      <c r="F5" s="93" t="n">
+      <c r="A5" s="71" t="s">
+        <v>836</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>837</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>838</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>839</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>840</v>
+      </c>
+      <c r="F5" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="92" t="s">
-        <v>831</v>
-      </c>
-      <c r="F6" s="93" t="n">
+      <c r="E6" s="91" t="s">
+        <v>841</v>
+      </c>
+      <c r="F6" s="92" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="92" t="s">
-        <v>832</v>
-      </c>
-      <c r="F7" s="93" t="n">
+      <c r="E7" s="91" t="s">
+        <v>842</v>
+      </c>
+      <c r="F7" s="92" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="94"/>
+      <c r="G7" s="93"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="92" t="s">
-        <v>833</v>
-      </c>
-      <c r="F8" s="93" t="n">
+      <c r="E8" s="91" t="s">
+        <v>843</v>
+      </c>
+      <c r="F8" s="92" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="94"/>
+      <c r="G8" s="93"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="92" t="s">
-        <v>834</v>
-      </c>
-      <c r="F9" s="93" t="n">
+      <c r="E9" s="91" t="s">
+        <v>844</v>
+      </c>
+      <c r="F9" s="92" t="n">
         <v>7</v>
       </c>
-      <c r="G9" s="94"/>
+      <c r="G9" s="93"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>839</v>
-      </c>
-      <c r="F10" s="93" t="n">
+        <v>848</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>849</v>
+      </c>
+      <c r="F10" s="92" t="n">
         <v>8</v>
       </c>
-      <c r="G10" s="94"/>
+      <c r="G10" s="93"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>844</v>
-      </c>
-      <c r="F11" s="93" t="n">
+        <v>853</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>854</v>
+      </c>
+      <c r="F11" s="92" t="n">
         <v>9</v>
       </c>
-      <c r="G11" s="94"/>
+      <c r="G11" s="93"/>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>849</v>
-      </c>
-      <c r="F12" s="93" t="n">
+        <v>858</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>859</v>
+      </c>
+      <c r="F12" s="92" t="n">
         <v>10</v>
       </c>
-      <c r="G12" s="94"/>
+      <c r="G12" s="93"/>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>854</v>
-      </c>
-      <c r="F13" s="93" t="n">
+        <v>863</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>864</v>
+      </c>
+      <c r="F13" s="92" t="n">
         <v>11</v>
       </c>
-      <c r="G13" s="94"/>
+      <c r="G13" s="93"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="92" t="s">
-        <v>855</v>
-      </c>
-      <c r="F14" s="93" t="n">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="91" t="s">
+        <v>865</v>
+      </c>
+      <c r="F14" s="92" t="n">
         <v>12</v>
       </c>
-      <c r="G14" s="94"/>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="92" t="s">
-        <v>856</v>
-      </c>
-      <c r="F15" s="93" t="n">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="91" t="s">
+        <v>866</v>
+      </c>
+      <c r="F15" s="92" t="n">
         <v>13</v>
       </c>
-      <c r="G15" s="94"/>
+      <c r="G15" s="93"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>857</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>858</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>859</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>860</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>861</v>
-      </c>
-      <c r="F16" s="93" t="n">
+      <c r="A16" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>871</v>
+      </c>
+      <c r="F16" s="92" t="n">
         <v>14</v>
       </c>
-      <c r="G16" s="94"/>
+      <c r="G16" s="93"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>862</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>863</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
-        <v>864</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>865</v>
-      </c>
-      <c r="F17" s="93" t="n">
+      <c r="A17" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>875</v>
+      </c>
+      <c r="F17" s="92" t="n">
         <v>15</v>
       </c>
-      <c r="G17" s="94"/>
+      <c r="G17" s="93"/>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>866</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>867</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>868</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>869</v>
-      </c>
-      <c r="F18" s="93" t="n">
+      <c r="A18" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>879</v>
+      </c>
+      <c r="F18" s="92" t="n">
         <v>16</v>
       </c>
-      <c r="G18" s="94"/>
+      <c r="G18" s="93"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="92" t="s">
-        <v>870</v>
-      </c>
-      <c r="F19" s="93" t="n">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="91" t="s">
+        <v>880</v>
+      </c>
+      <c r="F19" s="92" t="n">
         <v>17</v>
       </c>
-      <c r="G19" s="94"/>
+      <c r="G19" s="93"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="92" t="s">
-        <v>871</v>
-      </c>
-      <c r="F20" s="93" t="n">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="91" t="s">
+        <v>881</v>
+      </c>
+      <c r="F20" s="92" t="n">
         <v>18</v>
       </c>
-      <c r="G20" s="94"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="92" t="s">
-        <v>872</v>
-      </c>
-      <c r="F21" s="93" t="n">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="91" t="s">
+        <v>882</v>
+      </c>
+      <c r="F21" s="92" t="n">
         <v>19</v>
       </c>
-      <c r="G21" s="94"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="92" t="s">
-        <v>873</v>
-      </c>
-      <c r="F22" s="93" t="n">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="91" t="s">
+        <v>883</v>
+      </c>
+      <c r="F22" s="92" t="n">
         <v>20</v>
       </c>
-      <c r="G22" s="94"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="G23" s="94"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="96" t="s">
-        <v>874</v>
-      </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
+      <c r="A27" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
     </row>
     <row r="28" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="97" t="s">
-        <v>875</v>
-      </c>
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="96" t="s">
+        <v>885</v>
+      </c>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="97" t="s">
-        <v>876</v>
-      </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="96" t="s">
+        <v>886</v>
+      </c>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="97" t="s">
-        <v>877</v>
-      </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="96" t="s">
+        <v>887</v>
+      </c>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="97" t="s">
-        <v>878</v>
-      </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="14"/>
+      <c r="A31" s="96" t="s">
+        <v>888</v>
+      </c>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="97" t="s">
-        <v>879</v>
-      </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="96" t="s">
+        <v>889</v>
+      </c>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="97" t="s">
-        <v>880</v>
-      </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="14"/>
+      <c r="A33" s="96" t="s">
+        <v>890</v>
+      </c>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -26450,8 +26452,8 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26461,91 +26463,91 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>883</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>884</v>
+      <c r="A3" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>885</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>886</v>
+      <c r="A4" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -26565,39 +26567,39 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="109.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="97" width="85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="97" width="109.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>887</v>
+      <c r="A1" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
-        <v>888</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>889</v>
+      <c r="A2" s="62" t="s">
+        <v>898</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
-        <v>890</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>891</v>
+      <c r="A3" s="62" t="s">
+        <v>900</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -26618,8 +26620,8 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26630,34 +26632,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26666,26 +26668,26 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="98" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="99" t="s">
-        <v>900</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>901</v>
+        <v>910</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="99" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26726,8 +26728,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26738,26 +26740,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="100" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -26778,8 +26780,8 @@
   </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26788,146 +26790,146 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>910</v>
-      </c>
-      <c r="B1" s="46"/>
+      <c r="A1" s="44" t="s">
+        <v>920</v>
+      </c>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -26947,8 +26949,8 @@
   </sheetPr>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26963,16 +26965,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="103" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="102"/>
       <c r="B3" s="102" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27146,8 +27148,8 @@
   </sheetPr>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27438,28 +27440,28 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="42.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="25.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="12" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
         <v>98</v>
       </c>
@@ -27468,51 +27470,59 @@
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+    <row r="5" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -27536,212 +27546,212 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="106.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="47.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="15" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="106.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="47.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="14" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>104</v>
+      <c r="A2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="95.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>106</v>
+      <c r="A3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>108</v>
+      <c r="A4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="95.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>110</v>
+      <c r="A5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>112</v>
+      <c r="A6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>114</v>
+      <c r="A7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>116</v>
+      <c r="A8" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>118</v>
+      <c r="A9" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="A14" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>121</v>
+      <c r="A15" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="325" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>123</v>
+      <c r="A16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="113.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>125</v>
+      <c r="A17" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -27764,51 +27774,51 @@
   </sheetPr>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="100.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="52.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="52.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>127</v>
+      <c r="A1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="B2" s="26"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="283" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="148.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>133</v>
+      <c r="A5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27816,188 +27826,188 @@
       <c r="B6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="81.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>135</v>
+      <c r="A7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>139</v>
+      <c r="A9" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="122.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
-        <v>140</v>
+      <c r="A10" s="28" t="s">
+        <v>144</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
-        <v>142</v>
+      <c r="A11" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="189.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>149</v>
+      <c r="A14" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="26"/>
+      <c r="B19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="26"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
-      <c r="B25" s="26"/>
+      <c r="B25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="26"/>
+      <c r="B27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
-      <c r="B29" s="26"/>
+      <c r="B29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
-      <c r="B31" s="26"/>
+      <c r="B31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="26"/>
+      <c r="B32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
-      <c r="B33" s="26"/>
+      <c r="B33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="26"/>
+      <c r="B36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
-      <c r="B37" s="26"/>
+      <c r="B37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
-      <c r="B38" s="26"/>
+      <c r="B38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="26"/>
+      <c r="B39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
-      <c r="B40" s="26"/>
+      <c r="B40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
-      <c r="B41" s="26"/>
+      <c r="B41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="26"/>
+      <c r="B42" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -28021,552 +28031,552 @@
   </sheetPr>
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="92.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="101.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="23" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="92.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="101.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="12" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>157</v>
+      <c r="A3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>159</v>
+      <c r="A4" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>161</v>
+      <c r="A7" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>163</v>
+      <c r="A8" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>167</v>
+      <c r="A10" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>169</v>
+      <c r="A11" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>170</v>
+      <c r="A12" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>173</v>
+      <c r="A13" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>175</v>
+      <c r="A14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>177</v>
+      <c r="A15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>179</v>
+      <c r="A16" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>181</v>
+      <c r="A17" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>183</v>
+      <c r="A18" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>185</v>
+      <c r="A19" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>187</v>
+      <c r="A20" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>189</v>
+      <c r="A21" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>191</v>
+      <c r="A22" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>192</v>
+      <c r="A23" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>195</v>
+      <c r="A24" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>197</v>
+      <c r="A28" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>199</v>
+      <c r="A29" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>201</v>
+      <c r="A30" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>203</v>
+      <c r="A31" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>205</v>
+      <c r="A32" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>207</v>
+      <c r="A33" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14" t="s">
-        <v>208</v>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>210</v>
+      <c r="A36" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>212</v>
+      <c r="A37" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>214</v>
+      <c r="A38" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>216</v>
+      <c r="A39" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>218</v>
+      <c r="A43" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B44" s="14"/>
+      <c r="A44" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>221</v>
+      <c r="A45" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>223</v>
+      <c r="A46" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>225</v>
+      <c r="A47" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>227</v>
+      <c r="A48" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>229</v>
+      <c r="A49" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>231</v>
+      <c r="A50" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>233</v>
+      <c r="A51" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>235</v>
+      <c r="A55" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>237</v>
+      <c r="A56" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="55.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>239</v>
+      <c r="A57" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>241</v>
+      <c r="A58" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>243</v>
+      <c r="A59" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>245</v>
+      <c r="A60" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>247</v>
+      <c r="A61" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>249</v>
+      <c r="A62" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>251</v>
+      <c r="A63" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>253</v>
+      <c r="A64" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>255</v>
+      <c r="A65" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>257</v>
+      <c r="A66" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>259</v>
+      <c r="A67" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -28586,8 +28596,8 @@
   </sheetPr>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28597,26 +28607,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28648,166 +28658,166 @@
       <c r="B10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11" s="44"/>
+      <c r="A11" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>266</v>
+      <c r="A12" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>268</v>
+      <c r="A13" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>270</v>
+      <c r="A15" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>272</v>
+      <c r="A16" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>274</v>
+      <c r="A17" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>276</v>
+      <c r="A18" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>278</v>
+      <c r="A20" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>280</v>
+      <c r="A21" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -28828,68 +28838,68 @@
   </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="47" width="86.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="47" width="53.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="45" width="86.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="45" width="53.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
-        <v>281</v>
+      <c r="A2" s="46" t="s">
+        <v>285</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
-        <v>283</v>
+      <c r="A3" s="46" t="s">
+        <v>287</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
-        <v>287</v>
+      <c r="A5" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28897,132 +28907,130 @@
       <c r="B8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="122.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>293</v>
+      <c r="A9" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>295</v>
+      <c r="A10" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>297</v>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>299</v>
+      <c r="A13" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>300</v>
+      <c r="A15" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>302</v>
+      <c r="A16" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>304</v>
+      <c r="A17" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>306</v>
+      <c r="A18" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
